--- a/forms_mapping.xlsx
+++ b/forms_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Tipificador Mejor\36 - Primigenio - Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0484ADD0-29BC-4204-8F8A-BF4208A57873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C499A-2A47-48D8-9F51-3AE8E66B31D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,13 +246,13 @@
     <t>escalas</t>
   </si>
   <si>
-    <t>consumo xius</t>
-  </si>
-  <si>
-    <t>estado xius</t>
-  </si>
-  <si>
     <t>datetime;id;rut;nombre;telefonos;;comuna;consulta;imsi inicial;imei;estado_xius;consumo_xius;xius vs crm;coinciden;soporte; area;mta;motivo;sondeo;proceso</t>
+  </si>
+  <si>
+    <t>estado_xius</t>
+  </si>
+  <si>
+    <t>consumo_xius</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>

--- a/forms_mapping.xlsx
+++ b/forms_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C499A-2A47-48D8-9F51-3AE8E66B31D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5EC72-9C7D-4824-9906-34A5BED85636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>form_key</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>datetime;id;rut;nombre;telefonos;;comuna;consulta;imsi inicial;estado_xius;consumo_xius;xius vs crm;coinciden;soporte; area;mta;motivo;sondeo;proceso</t>
-  </si>
-  <si>
-    <t>escalas</t>
   </si>
   <si>
     <t>datetime;id;rut;nombre;telefonos;;comuna;consulta;imsi inicial;imei;estado_xius;consumo_xius;xius vs crm;coinciden;soporte; area;mta;motivo;sondeo;proceso</t>
@@ -660,7 +657,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +806,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -823,7 +820,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -879,7 +876,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -921,7 +918,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
